--- a/Documentacion/Cronograma.xlsx
+++ b/Documentacion/Cronograma.xlsx
@@ -4,7 +4,6 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Cronograma Inicial" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Cronograma Final" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>Lunes(5h)</t>
   </si>
@@ -74,7 +73,7 @@
     <t>Validaciones Registro-Login</t>
   </si>
   <si>
-    <t>Documento explicativo</t>
+    <t>Modificación Modelo (E/R)</t>
   </si>
   <si>
     <t>Diseño de Pagina de login</t>
@@ -83,13 +82,16 @@
     <t>Script sql llenado de tablas</t>
   </si>
   <si>
+    <t>Revisión 1º Bloque</t>
+  </si>
+  <si>
     <t>Semana2</t>
   </si>
   <si>
-    <t>Página de Logout</t>
-  </si>
-  <si>
-    <t>Pagina listar elementos</t>
+    <t>Página de Logut/Perfil</t>
+  </si>
+  <si>
+    <t>Cátalogo de productos</t>
   </si>
   <si>
     <t>Despegar host virtual con apache</t>
@@ -104,13 +106,13 @@
     <t>Menú de navegación Flexbox</t>
   </si>
   <si>
-    <t>Página modificación perfil</t>
-  </si>
-  <si>
-    <t>Funcionalidad Uusario administrador</t>
-  </si>
-  <si>
-    <t>Catalogo de productos/fotogaleria</t>
+    <t>Página "Comprar Productos"</t>
+  </si>
+  <si>
+    <t>Funcionalidad Administrador</t>
+  </si>
+  <si>
+    <t>Fotogaleria</t>
   </si>
   <si>
     <t>Guardar sesion usuario</t>
@@ -119,38 +121,74 @@
     <t>Revisión 2º Bloque</t>
   </si>
   <si>
+    <t>Funcionalidad C.Productos</t>
+  </si>
+  <si>
+    <t>Continuar trabajo Login/Register</t>
+  </si>
+  <si>
+    <t>Funcionalidad me gusta</t>
+  </si>
+  <si>
+    <t>Continuar Menú Principal</t>
+  </si>
+  <si>
     <t>Semana3</t>
   </si>
   <si>
-    <t>Funcionalidad "wish list"</t>
+    <t>Funcionalidad "Favoritos"</t>
   </si>
   <si>
     <t>Funcionalidad "Me Gusta"</t>
   </si>
   <si>
-    <t>Página "Comprar Productos"</t>
-  </si>
-  <si>
     <t>Desplegamineto Nginx</t>
   </si>
   <si>
-    <t>Pagina "wish list"</t>
-  </si>
-  <si>
-    <t>Página "Me Gusta"</t>
-  </si>
-  <si>
-    <t>Funcionalidades Extras</t>
+    <t>Pagina "Favoritos"</t>
+  </si>
+  <si>
+    <t>Funci. Extras (Hash contraseñas)</t>
+  </si>
+  <si>
+    <t>Funcionalidad Favoritos</t>
   </si>
   <si>
     <t>Revisión de 3ºBloque</t>
+  </si>
+  <si>
+    <t>Bug añadir favoritos</t>
+  </si>
+  <si>
+    <t>Página "Resumen de compra"</t>
+  </si>
+  <si>
+    <t>Bug estéticos de css</t>
+  </si>
+  <si>
+    <t>Despliegue Nginx</t>
+  </si>
+  <si>
+    <t>Media Query</t>
+  </si>
+  <si>
+    <t>Eliminar productos favoritos</t>
+  </si>
+  <si>
+    <t>Rediseño página admin</t>
+  </si>
+  <si>
+    <t>Bugs de la aplicación</t>
+  </si>
+  <si>
+    <t>Extra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="14">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -182,6 +220,16 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FFFF0000"/>
       <name val="&quot;Aptos Narrow&quot;"/>
     </font>
     <font>
@@ -199,8 +247,23 @@
       <color rgb="FFFFFFFF"/>
       <name val="&quot;Amasis MT Pro Black&quot;"/>
     </font>
+    <font>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF156082"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,6 +276,12 @@
         <bgColor rgb="FF156082"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border/>
@@ -271,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -296,19 +365,25 @@
     <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -323,8 +398,25 @@
     <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -335,10 +427,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -547,7 +635,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="28.5"/>
-    <col customWidth="1" min="2" max="2" width="22.13"/>
+    <col customWidth="1" min="2" max="2" width="25.13"/>
     <col customWidth="1" min="3" max="3" width="28.25"/>
     <col customWidth="1" min="4" max="4" width="24.63"/>
     <col customWidth="1" min="5" max="5" width="30.88"/>
@@ -586,631 +674,403 @@
       <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="9"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7">
-      <c r="A7" s="13"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="9"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
+      <c r="G10" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="8" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="B11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="s">
+      <c r="E11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="8" t="s">
+      <c r="B13" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="13"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="9"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="10"/>
     </row>
     <row r="14">
-      <c r="A14" s="13"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="9"/>
+      <c r="A14" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="10"/>
     </row>
     <row r="15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="9"/>
+      <c r="A15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="9"/>
+      <c r="G18" s="19" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="8" t="s">
+      <c r="B19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="13"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="9"/>
+      <c r="E20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="10"/>
     </row>
     <row r="21">
-      <c r="A21" s="13"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="9"/>
+      <c r="A21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="10"/>
     </row>
     <row r="22">
-      <c r="A22" s="13"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="9"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="10"/>
     </row>
     <row r="23">
-      <c r="A23" s="13"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="9"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="10"/>
     </row>
     <row r="24">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="16"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="23"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="23"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="25"/>
+    </row>
+    <row r="30">
+      <c r="G30" s="26" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="G1:G8"/>
-    <mergeCell ref="G9:G16"/>
-    <mergeCell ref="G17:G24"/>
-  </mergeCells>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="28.5"/>
-    <col customWidth="1" min="2" max="2" width="22.13"/>
-    <col customWidth="1" min="3" max="3" width="28.25"/>
-    <col customWidth="1" min="4" max="4" width="24.63"/>
-    <col customWidth="1" min="5" max="5" width="30.88"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="13"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="13"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="13"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="13"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="13"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="13"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="13"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="13"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="13"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="G1:G8"/>
-    <mergeCell ref="G9:G16"/>
-    <mergeCell ref="G17:G24"/>
+    <mergeCell ref="G1:G9"/>
+    <mergeCell ref="G10:G17"/>
+    <mergeCell ref="G18:G25"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
